--- a/cajero/CONTEO.xlsx
+++ b/cajero/CONTEO.xlsx
@@ -430,7 +430,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
